--- a/to_predict/UNverified_07292020.xlsx
+++ b/to_predict/UNverified_07292020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Library/Containers/com.microsoft.Excel/Data/Desktop/Work/NGC/sentiment analysis/covid/albert/to_predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD994422-5D45-EF4E-B1E3-72E76F23182F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BA81D9-C369-184F-ABC7-779C30DC5C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25480" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="982">
   <si>
     <t>text</t>
   </si>
@@ -2970,6 +2970,12 @@
   </si>
   <si>
     <t>prediction %</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x?</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3344,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3364,6 +3370,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>980</v>
+      </c>
       <c r="E2" t="s">
         <v>974</v>
       </c>
@@ -3449,6 +3458,9 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3513,16 +3525,22 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3554,23 +3572,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3578,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3586,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3602,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3610,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3618,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3634,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>

--- a/to_predict/UNverified_07292020.xlsx
+++ b/to_predict/UNverified_07292020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Library/Containers/com.microsoft.Excel/Data/Desktop/Work/NGC/sentiment analysis/covid/albert/to_predict/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Desktop/Work/NGC/sentiment analysis/covid/albert/to_predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BA81D9-C369-184F-ABC7-779C30DC5C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E3D9F0-6AA2-3042-BE4B-20D718597988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25480" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="983">
   <si>
     <t>text</t>
   </si>
@@ -2976,6 +2976,9 @@
   </si>
   <si>
     <t>x?</t>
+  </si>
+  <si>
+    <t>**predictions made with covid_output_unclean</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3347,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3450,6 +3453,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
